--- a/IEDC_Classification_fill/regions_iso_iedc_data.xlsx
+++ b/IEDC_Classification_fill/regions_iso_iedc_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="981">
   <si>
     <t>id</t>
   </si>
@@ -2954,9 +2954,6 @@
   </si>
   <si>
     <t>Latin America and the Carribbean</t>
-  </si>
-  <si>
-    <t>Nothern America</t>
   </si>
   <si>
     <t>reserved</t>
@@ -3312,8 +3309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T351"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O347" sqref="O347"/>
+    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
+      <selection activeCell="F300" sqref="F300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15732,7 +15729,7 @@
         <v>0</v>
       </c>
       <c r="F299" t="s">
-        <v>980</v>
+        <v>117</v>
       </c>
       <c r="I299">
         <v>905</v>
@@ -15749,7 +15746,7 @@
         <v>0</v>
       </c>
       <c r="F300" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I300">
         <v>0</v>
@@ -15766,7 +15763,7 @@
         <v>0</v>
       </c>
       <c r="F301" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I301">
         <v>0</v>
@@ -15783,7 +15780,7 @@
         <v>0</v>
       </c>
       <c r="F302" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I302">
         <v>0</v>
@@ -15800,7 +15797,7 @@
         <v>0</v>
       </c>
       <c r="F303" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I303">
         <v>0</v>
@@ -15817,7 +15814,7 @@
         <v>0</v>
       </c>
       <c r="F304" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I304">
         <v>0</v>
@@ -15834,7 +15831,7 @@
         <v>0</v>
       </c>
       <c r="F305" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I305">
         <v>0</v>
@@ -15851,7 +15848,7 @@
         <v>0</v>
       </c>
       <c r="F306" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I306">
         <v>0</v>
@@ -15868,7 +15865,7 @@
         <v>0</v>
       </c>
       <c r="F307" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I307">
         <v>0</v>
@@ -15885,7 +15882,7 @@
         <v>0</v>
       </c>
       <c r="F308" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I308">
         <v>0</v>
@@ -15902,7 +15899,7 @@
         <v>0</v>
       </c>
       <c r="F309" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I309">
         <v>0</v>
@@ -15919,7 +15916,7 @@
         <v>0</v>
       </c>
       <c r="F310" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I310">
         <v>0</v>
@@ -15936,7 +15933,7 @@
         <v>0</v>
       </c>
       <c r="F311" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I311">
         <v>0</v>
@@ -15953,7 +15950,7 @@
         <v>0</v>
       </c>
       <c r="F312" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I312">
         <v>0</v>
@@ -15970,7 +15967,7 @@
         <v>0</v>
       </c>
       <c r="F313" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I313">
         <v>0</v>
@@ -15987,7 +15984,7 @@
         <v>0</v>
       </c>
       <c r="F314" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I314">
         <v>0</v>
@@ -16004,7 +16001,7 @@
         <v>0</v>
       </c>
       <c r="F315" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I315">
         <v>0</v>
@@ -16021,7 +16018,7 @@
         <v>0</v>
       </c>
       <c r="F316" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I316">
         <v>0</v>
@@ -16038,7 +16035,7 @@
         <v>0</v>
       </c>
       <c r="F317" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I317">
         <v>0</v>
@@ -16055,7 +16052,7 @@
         <v>0</v>
       </c>
       <c r="F318" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I318">
         <v>0</v>
@@ -16072,7 +16069,7 @@
         <v>0</v>
       </c>
       <c r="F319" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I319">
         <v>0</v>
@@ -16089,7 +16086,7 @@
         <v>0</v>
       </c>
       <c r="F320" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I320">
         <v>0</v>
@@ -16106,7 +16103,7 @@
         <v>0</v>
       </c>
       <c r="F321" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I321">
         <v>0</v>
@@ -16123,7 +16120,7 @@
         <v>0</v>
       </c>
       <c r="F322" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I322">
         <v>0</v>
@@ -16140,7 +16137,7 @@
         <v>0</v>
       </c>
       <c r="F323" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I323">
         <v>0</v>
@@ -16157,7 +16154,7 @@
         <v>0</v>
       </c>
       <c r="F324" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I324">
         <v>0</v>
@@ -16174,7 +16171,7 @@
         <v>0</v>
       </c>
       <c r="F325" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I325">
         <v>0</v>
@@ -16191,7 +16188,7 @@
         <v>0</v>
       </c>
       <c r="F326" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I326">
         <v>0</v>
@@ -16208,7 +16205,7 @@
         <v>0</v>
       </c>
       <c r="F327" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I327">
         <v>0</v>
@@ -16225,7 +16222,7 @@
         <v>0</v>
       </c>
       <c r="F328" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I328">
         <v>0</v>
@@ -16242,7 +16239,7 @@
         <v>0</v>
       </c>
       <c r="F329" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I329">
         <v>0</v>
@@ -16259,7 +16256,7 @@
         <v>0</v>
       </c>
       <c r="F330" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I330">
         <v>0</v>
@@ -16276,7 +16273,7 @@
         <v>0</v>
       </c>
       <c r="F331" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I331">
         <v>0</v>
@@ -16293,7 +16290,7 @@
         <v>0</v>
       </c>
       <c r="F332" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I332">
         <v>0</v>
@@ -16310,7 +16307,7 @@
         <v>0</v>
       </c>
       <c r="F333" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I333">
         <v>0</v>
@@ -16327,7 +16324,7 @@
         <v>0</v>
       </c>
       <c r="F334" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I334">
         <v>0</v>
@@ -16344,7 +16341,7 @@
         <v>0</v>
       </c>
       <c r="F335" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I335">
         <v>0</v>
@@ -16361,7 +16358,7 @@
         <v>0</v>
       </c>
       <c r="F336" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I336">
         <v>0</v>
@@ -16378,7 +16375,7 @@
         <v>0</v>
       </c>
       <c r="F337" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I337">
         <v>0</v>
@@ -16395,7 +16392,7 @@
         <v>0</v>
       </c>
       <c r="F338" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I338">
         <v>0</v>
@@ -16412,7 +16409,7 @@
         <v>0</v>
       </c>
       <c r="F339" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I339">
         <v>0</v>
@@ -16429,7 +16426,7 @@
         <v>0</v>
       </c>
       <c r="F340" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I340">
         <v>0</v>
@@ -16446,7 +16443,7 @@
         <v>0</v>
       </c>
       <c r="F341" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I341">
         <v>0</v>
@@ -16463,7 +16460,7 @@
         <v>0</v>
       </c>
       <c r="F342" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I342">
         <v>0</v>
@@ -16480,7 +16477,7 @@
         <v>0</v>
       </c>
       <c r="F343" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I343">
         <v>0</v>
@@ -16497,7 +16494,7 @@
         <v>0</v>
       </c>
       <c r="F344" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I344">
         <v>0</v>
@@ -16514,7 +16511,7 @@
         <v>0</v>
       </c>
       <c r="F345" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I345">
         <v>0</v>
@@ -16531,7 +16528,7 @@
         <v>0</v>
       </c>
       <c r="F346" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I346">
         <v>0</v>
@@ -16548,7 +16545,7 @@
         <v>0</v>
       </c>
       <c r="F347" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I347">
         <v>0</v>
@@ -16565,7 +16562,7 @@
         <v>0</v>
       </c>
       <c r="F348" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I348">
         <v>0</v>
@@ -16582,7 +16579,7 @@
         <v>0</v>
       </c>
       <c r="F349" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I349">
         <v>0</v>
@@ -16599,7 +16596,7 @@
         <v>0</v>
       </c>
       <c r="F350" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I350">
         <v>0</v>
@@ -16616,7 +16613,7 @@
         <v>0</v>
       </c>
       <c r="F351" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I351">
         <v>0</v>
